--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54A7110-C484-4D73-B01F-242CC15E6563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC76B0-73C8-4ABD-803C-86790D8E0408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
   <si>
     <t>Location</t>
   </si>
@@ -37,55 +37,157 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>Bermagui NSW</t>
+  </si>
+  <si>
+    <t>Bermis Beachside cafe  2/4 Lamont Street, Bermagui NSW</t>
+  </si>
+  <si>
+    <t>30/12/2020 9:00am-10:00am</t>
+  </si>
+  <si>
+    <t>Case dined in cafe</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
+  </si>
+  <si>
+    <t>24/12/2020 10:00am-11:05am</t>
+  </si>
+  <si>
+    <t>Case ate at restaurant</t>
+  </si>
+  <si>
+    <t>Eden NSW</t>
+  </si>
+  <si>
+    <t>Great Southern Hotel  158 Imlay Street, Eden NSW</t>
+  </si>
+  <si>
+    <t>30/12/2020 5:00pm-6:00pm</t>
+  </si>
+  <si>
+    <t>Case had dinner here</t>
+  </si>
+  <si>
+    <t>Lakes Entrance</t>
+  </si>
+  <si>
+    <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/2020 09:30am-10:45am</t>
+  </si>
+  <si>
+    <t>Case ate in cafe</t>
+  </si>
+  <si>
+    <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/2020 05:30pm-05:50pm</t>
+  </si>
+  <si>
+    <t>Case in hotel bar</t>
+  </si>
+  <si>
+    <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/2020 03:30pm-04:30pm</t>
+  </si>
+  <si>
+    <t>Case visited pool area</t>
+  </si>
+  <si>
+    <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/2020 2:30pm-5:50pm</t>
+  </si>
+  <si>
+    <t>Case attended site</t>
+  </si>
+  <si>
+    <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/2020 1:00pm-2:00pm</t>
+  </si>
+  <si>
+    <t>Case visited vineyard</t>
+  </si>
+  <si>
     <t>Leongatha</t>
   </si>
   <si>
     <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
   </si>
   <si>
-    <t>27/12/2020 4:00pm-7:30pm</t>
+    <t>26/12/2020 5:30pm-7:30pm</t>
   </si>
   <si>
     <t>Case worked in store</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>27/12/2020 7:30am-11:30am</t>
   </si>
   <si>
-    <t>Mordialloc</t>
-  </si>
-  <si>
-    <t>Woodlands Golf Club  109 White Street Mordialloc</t>
-  </si>
-  <si>
-    <t>23/12/20 8:00am-2:00pm</t>
-  </si>
-  <si>
-    <t>Case attended course</t>
-  </si>
-  <si>
     <t>old</t>
   </si>
   <si>
-    <t>28/12/20 2pm-5:00pm</t>
-  </si>
-  <si>
-    <t>Oakleigh</t>
-  </si>
-  <si>
-    <t>Melissa Oakleigh Restaurant  6 Eaton Mall, Oakleigh VIC 3166</t>
-  </si>
-  <si>
-    <t>28/12/20 7:30pm-8:15pm</t>
-  </si>
-  <si>
-    <t>Case ate at restaurant for 45min</t>
-  </si>
-  <si>
-    <t>Case dined in restaurant</t>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+  </si>
+  <si>
+    <t>21/12/2020 8:00pm-9:30pm</t>
+  </si>
+  <si>
+    <t>Case attended cafe</t>
+  </si>
+  <si>
+    <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+  </si>
+  <si>
+    <t>29/12/2020 6:00pm-7:00pm</t>
+  </si>
+  <si>
+    <t>Case attended restaurant</t>
+  </si>
+  <si>
+    <t>Moorabbin</t>
+  </si>
+  <si>
+    <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
+  </si>
+  <si>
+    <t>24/12/2020 11:00am-12:00pm</t>
+  </si>
+  <si>
+    <t>Southbank</t>
+  </si>
+  <si>
+    <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+  </si>
+  <si>
+    <t>25/12/2020 12:00pm-02:30pm</t>
+  </si>
+  <si>
+    <t>Case attended bar</t>
+  </si>
+  <si>
+    <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
+  </si>
+  <si>
+    <t>23/112/2020 1:00pm-1:30pm</t>
   </si>
 </sst>
 </file>
@@ -449,18 +551,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="49.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="26.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -500,16 +602,16 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -517,69 +619,222 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>18</v>
       </c>
-      <c r="C7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
+      <c r="B8" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" t="s">
+        <v>43</v>
+      </c>
+      <c r="E14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>50</v>
+      </c>
+      <c r="B16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E16" t="s">
         <v>9</v>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92BC76B0-73C8-4ABD-803C-86790D8E0408}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5464EC3-CFD1-4C77-8FBB-8C8CC0B5E4B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Location</t>
   </si>
@@ -49,19 +49,7 @@
     <t>Case dined in cafe</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
-  </si>
-  <si>
-    <t>24/12/2020 10:00am-11:05am</t>
-  </si>
-  <si>
-    <t>Case ate at restaurant</t>
+    <t>old</t>
   </si>
   <si>
     <t>Eden NSW</t>
@@ -74,120 +62,6 @@
   </si>
   <si>
     <t>Case had dinner here</t>
-  </si>
-  <si>
-    <t>Lakes Entrance</t>
-  </si>
-  <si>
-    <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>29/12/2020 09:30am-10:45am</t>
-  </si>
-  <si>
-    <t>Case ate in cafe</t>
-  </si>
-  <si>
-    <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>29/12/2020 05:30pm-05:50pm</t>
-  </si>
-  <si>
-    <t>Case in hotel bar</t>
-  </si>
-  <si>
-    <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>29/12/2020 03:30pm-04:30pm</t>
-  </si>
-  <si>
-    <t>Case visited pool area</t>
-  </si>
-  <si>
-    <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>29/12/2020 2:30pm-5:50pm</t>
-  </si>
-  <si>
-    <t>Case attended site</t>
-  </si>
-  <si>
-    <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>29/12/2020 1:00pm-2:00pm</t>
-  </si>
-  <si>
-    <t>Case visited vineyard</t>
-  </si>
-  <si>
-    <t>Leongatha</t>
-  </si>
-  <si>
-    <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
-  </si>
-  <si>
-    <t>26/12/2020 5:30pm-7:30pm</t>
-  </si>
-  <si>
-    <t>Case worked in store</t>
-  </si>
-  <si>
-    <t>27/12/2020 7:30am-11:30am</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
-  </si>
-  <si>
-    <t>21/12/2020 8:00pm-9:30pm</t>
-  </si>
-  <si>
-    <t>Case attended cafe</t>
-  </si>
-  <si>
-    <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
-  </si>
-  <si>
-    <t>29/12/2020 6:00pm-7:00pm</t>
-  </si>
-  <si>
-    <t>Case attended restaurant</t>
-  </si>
-  <si>
-    <t>Moorabbin</t>
-  </si>
-  <si>
-    <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
-  </si>
-  <si>
-    <t>24/12/2020 11:00am-12:00pm</t>
-  </si>
-  <si>
-    <t>Southbank</t>
-  </si>
-  <si>
-    <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
-  </si>
-  <si>
-    <t>25/12/2020 12:00pm-02:30pm</t>
-  </si>
-  <si>
-    <t>Case attended bar</t>
-  </si>
-  <si>
-    <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
-  </si>
-  <si>
-    <t>23/112/2020 1:00pm-1:30pm</t>
   </si>
 </sst>
 </file>
@@ -551,18 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="68.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.86328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -617,227 +491,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s">
-        <v>27</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>18</v>
-      </c>
-      <c r="B8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" t="s">
-        <v>31</v>
-      </c>
-      <c r="C9" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" t="s">
-        <v>33</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>34</v>
-      </c>
-      <c r="B10" t="s">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11" t="s">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>37</v>
-      </c>
-      <c r="E11" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A14" t="s">
-        <v>47</v>
-      </c>
-      <c r="B14" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s">
-        <v>49</v>
-      </c>
-      <c r="D14" t="s">
-        <v>43</v>
-      </c>
-      <c r="E14" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A15" t="s">
-        <v>50</v>
-      </c>
-      <c r="B15" t="s">
-        <v>51</v>
-      </c>
-      <c r="C15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A16" t="s">
-        <v>50</v>
-      </c>
-      <c r="B16" t="s">
-        <v>54</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-      <c r="D16" t="s">
-        <v>46</v>
-      </c>
-      <c r="E16" t="s">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5464EC3-CFD1-4C77-8FBB-8C8CC0B5E4B9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8DA715-1E02-4A4A-AABA-B8BC0B03AD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>Location</t>
   </si>
@@ -37,31 +48,52 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Bermagui NSW</t>
-  </si>
-  <si>
-    <t>Bermis Beachside cafe  2/4 Lamont Street, Bermagui NSW</t>
-  </si>
-  <si>
-    <t>30/12/2020 9:00am-10:00am</t>
-  </si>
-  <si>
-    <t>Case dined in cafe</t>
+    <t>Lakes Entrance</t>
+  </si>
+  <si>
+    <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/2020 7:00pm-9:30pm</t>
+  </si>
+  <si>
+    <t>Case attended carnival</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+  </si>
+  <si>
+    <t>21/12/2020 8:00pm-9:30pm</t>
+  </si>
+  <si>
+    <t>Case attended cafe</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>Eden NSW</t>
-  </si>
-  <si>
-    <t>Great Southern Hotel  158 Imlay Street, Eden NSW</t>
-  </si>
-  <si>
-    <t>30/12/2020 5:00pm-6:00pm</t>
-  </si>
-  <si>
-    <t>Case had dinner here</t>
+    <t>28/12/2020 8:00pm-9:30pm</t>
+  </si>
+  <si>
+    <t>Southbank</t>
+  </si>
+  <si>
+    <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
+  </si>
+  <si>
+    <t>23/112/2020 1:00pm-1:30pm</t>
+  </si>
+  <si>
+    <t>Case attended restaurant</t>
+  </si>
+  <si>
+    <t>23/12/2020 1:00pm-1:30pm</t>
   </si>
 </sst>
 </file>
@@ -425,18 +457,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="12.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.86328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -488,6 +520,57 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D8DA715-1E02-4A4A-AABA-B8BC0B03AD4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10664398-8C47-417C-9C83-A569876335DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Location</t>
   </si>
@@ -48,52 +37,31 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>Caulfield</t>
+  </si>
+  <si>
+    <t>Metro Train - Frankston line</t>
+  </si>
+  <si>
+    <t>30/12/20 4:30pm-17:00pm</t>
+  </si>
+  <si>
+    <t>Case caught train from Caulfield to Cheltenham</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>Lakes Entrance</t>
   </si>
   <si>
-    <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
-  </si>
-  <si>
-    <t>29/12/2020 7:00pm-9:30pm</t>
-  </si>
-  <si>
-    <t>Case attended carnival</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
-  </si>
-  <si>
-    <t>21/12/2020 8:00pm-9:30pm</t>
-  </si>
-  <si>
-    <t>Case attended cafe</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>28/12/2020 8:00pm-9:30pm</t>
-  </si>
-  <si>
-    <t>Southbank</t>
-  </si>
-  <si>
-    <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
-  </si>
-  <si>
-    <t>23/112/2020 1:00pm-1:30pm</t>
-  </si>
-  <si>
-    <t>Case attended restaurant</t>
-  </si>
-  <si>
-    <t>23/12/2020 1:00pm-1:30pm</t>
+    <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
+  </si>
+  <si>
+    <t>30/12/2020 11:55am-12:30pm</t>
+  </si>
+  <si>
+    <t>Case caught the 11:55am bus from Lakes Entrance</t>
   </si>
 </sst>
 </file>
@@ -457,18 +425,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -520,57 +488,6 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -1,91 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10664398-8C47-417C-9C83-A569876335DD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Exposure period</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Exist</t>
-  </si>
-  <si>
-    <t>Caulfield</t>
-  </si>
-  <si>
-    <t>Metro Train - Frankston line</t>
-  </si>
-  <si>
-    <t>30/12/20 4:30pm-17:00pm</t>
-  </si>
-  <si>
-    <t>Case caught train from Caulfield to Cheltenham</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Lakes Entrance</t>
-  </si>
-  <si>
-    <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
-  </si>
-  <si>
-    <t>30/12/2020 11:55am-12:30pm</t>
-  </si>
-  <si>
-    <t>Case caught the 11:55am bus from Lakes Entrance</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -100,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -119,24 +57,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -424,71 +353,71 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="40.73046875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exposure period</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Exist</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Bairnsdale</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>V/Line train - Bairnsdale to Melbourne</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>30/12/20 12:45pm-4:30pm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Case caught train from Bairnsdale to Caulfield</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -1,37 +1,85 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F760FD8A-E87B-4EBC-9F49-1D548EC511E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Exposure period</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Exist</t>
+  </si>
+  <si>
+    <t>Southbank</t>
+  </si>
+  <si>
+    <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
+  </si>
+  <si>
+    <t>23/12/2020 1:00pm-1:30pm</t>
+  </si>
+  <si>
+    <t>Case attended restaurant</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>23/12/2020 8:00pm-10:00pm</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +94,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,15 +113,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,71 +418,70 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E2"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Site</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Exposure period</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Exist</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Bairnsdale</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>V/Line train - Bairnsdale to Melbourne</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>30/12/20 12:45pm-4:30pm</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Case caught train from Bairnsdale to Caulfield</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F760FD8A-E87B-4EBC-9F49-1D548EC511E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BB20BF8-56D7-4A4A-A7EC-55128FE3CD70}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="81">
   <si>
     <t>Location</t>
   </si>
@@ -37,25 +48,232 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>Albert Park</t>
+  </si>
+  <si>
+    <t>The Guilty Moose Cafe  143 Victoria Avenue, Albert Park VIC 3206</t>
+  </si>
+  <si>
+    <t>30/12/20 1pm-1:30pm</t>
+  </si>
+  <si>
+    <t>Case ate at cafe</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
+  </si>
+  <si>
+    <t>24/12/20 10:00am-11:05am</t>
+  </si>
+  <si>
+    <t>Case ate at restaurant</t>
+  </si>
+  <si>
+    <t>24/12/2020 10:00am-11:05am</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Camberwell</t>
+  </si>
+  <si>
+    <t>Crown Nails  766 Riversdale Road, Camberwell VIC 3124</t>
+  </si>
+  <si>
+    <t>30/12/20 1:30pm-2:30pm</t>
+  </si>
+  <si>
+    <t>Case attended</t>
+  </si>
+  <si>
+    <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
+  </si>
+  <si>
+    <t>30/12/20 12:30pm-1:30pm</t>
+  </si>
+  <si>
+    <t>Lakes Entrance</t>
+  </si>
+  <si>
+    <t>Albert and Co. Cafe - Bellevue Hotel  201 Esplanade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/20 09:30am-10:45am</t>
+  </si>
+  <si>
+    <t>Case ate in cafe</t>
+  </si>
+  <si>
+    <t>29/12/2020 09:30am-10:45am</t>
+  </si>
+  <si>
+    <t>Chants Summer Carnival - Footbridge, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/20 7:00pm-9:30pm</t>
+  </si>
+  <si>
+    <t>Case attended carnival</t>
+  </si>
+  <si>
+    <t>29/12/2020 7:00pm-9:30pm</t>
+  </si>
+  <si>
+    <t>Esplanade Resort Lakes Entrance - Hotel bar  1 Esplanade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/20 05:30pm-05:50pm</t>
+  </si>
+  <si>
+    <t>Case in hotel bar</t>
+  </si>
+  <si>
+    <t>29/12/2020 05:30pm-05:50pm</t>
+  </si>
+  <si>
+    <t>Esplanade Resort Lakes Entrance - Pool area  1 Esplanade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/20 03:30pm-04:30pm</t>
+  </si>
+  <si>
+    <t>Case visited pool area</t>
+  </si>
+  <si>
+    <t>29/12/2020 03:30pm-04:30pm</t>
+  </si>
+  <si>
+    <t>Lakes Boat Shed Cafe  54 Marine Parade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>30/12/20 9:30am-10:30am</t>
+  </si>
+  <si>
+    <t>Case attended cafe</t>
+  </si>
+  <si>
+    <t>30/12/2020 9:30am-10:30am</t>
+  </si>
+  <si>
+    <t>The Esplanade Resort and Spa  1 Esplanade, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/20 2:30pm-5:50pm</t>
+  </si>
+  <si>
+    <t>Case attended site</t>
+  </si>
+  <si>
+    <t>29/12/2020 2:30pm-5:50pm</t>
+  </si>
+  <si>
+    <t>V/Line bus - Lakes Entrance to Bairnsdale</t>
+  </si>
+  <si>
+    <t>30/12/20 11:55am-12:30pm</t>
+  </si>
+  <si>
+    <t>Case caught the 11:55am bus from Lakes Entrance</t>
+  </si>
+  <si>
+    <t>30/12/2020 11:55am-12:30pm</t>
+  </si>
+  <si>
+    <t>Wyanga Winery  248 Baades Rd, Lakes Entrance VIC 3909</t>
+  </si>
+  <si>
+    <t>29/12/20 1:00pm-2:00pm</t>
+  </si>
+  <si>
+    <t>Case visited vineyard</t>
+  </si>
+  <si>
+    <t>29/12/2020 1:00pm-2:00pm</t>
+  </si>
+  <si>
+    <t>Leongatha</t>
+  </si>
+  <si>
+    <t>Coral Fish and Chips 53 Bair St, Leongatha VIC 3953</t>
+  </si>
+  <si>
+    <t>26/12/20 5:30pm-7:30pm</t>
+  </si>
+  <si>
+    <t>Case worked in store</t>
+  </si>
+  <si>
+    <t>26/12/2020 5:30pm-7:30pm</t>
+  </si>
+  <si>
+    <t>27/12/20 4:00pm-7:30pm</t>
+  </si>
+  <si>
+    <t>27/12/2020 4:00pm-7:30pm</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>European Bier Cafe City  120 Exhibition Street Melbourne VIC 3000</t>
+  </si>
+  <si>
+    <t>28/12/20 8:00pm-9:30pm</t>
+  </si>
+  <si>
+    <t>28/12/2020 8:00pm-9:30pm</t>
+  </si>
+  <si>
+    <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+  </si>
+  <si>
+    <t>29/12/20 6:00pm-7:00pm</t>
+  </si>
+  <si>
+    <t>Case attended restaurant</t>
+  </si>
+  <si>
+    <t>29/12/2020 6:00pm-7:00pm</t>
+  </si>
+  <si>
+    <t>Moorabbin</t>
+  </si>
+  <si>
+    <t>Minnie Miny Mo Cafe  8 Station Street, Moorabbin</t>
+  </si>
+  <si>
+    <t>24/12/2020 11:00am-12:00pm</t>
+  </si>
+  <si>
     <t>Southbank</t>
   </si>
   <si>
+    <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+  </si>
+  <si>
+    <t>25/12/20 12:00pm-02:30pm</t>
+  </si>
+  <si>
+    <t>Case attended bar</t>
+  </si>
+  <si>
+    <t>25/12/2020 12:00pm-02:30pm</t>
+  </si>
+  <si>
     <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
   </si>
   <si>
-    <t>23/12/2020 1:00pm-1:30pm</t>
-  </si>
-  <si>
-    <t>Case attended restaurant</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>23/12/20 8:00pm-10:00pm</t>
   </si>
   <si>
     <t>23/12/2020 8:00pm-10:00pm</t>
-  </si>
-  <si>
-    <t>new</t>
   </si>
 </sst>
 </file>
@@ -419,17 +637,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="55.6640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="40.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,19 +688,563 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>10</v>
       </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" t="s">
+      <c r="B4" t="s">
         <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>27</v>
+      </c>
+      <c r="C9" t="s">
+        <v>28</v>
+      </c>
+      <c r="D9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10" t="s">
+        <v>29</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>31</v>
+      </c>
+      <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s">
+        <v>33</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" t="s">
+        <v>37</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>39</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>41</v>
+      </c>
+      <c r="E15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" t="s">
+        <v>45</v>
+      </c>
+      <c r="E17" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="s">
+        <v>46</v>
+      </c>
+      <c r="D18" t="s">
+        <v>45</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>47</v>
+      </c>
+      <c r="C19" t="s">
+        <v>48</v>
+      </c>
+      <c r="D19" t="s">
+        <v>49</v>
+      </c>
+      <c r="E19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A20" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C20" t="s">
+        <v>50</v>
+      </c>
+      <c r="D20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>22</v>
+      </c>
+      <c r="B21" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>53</v>
+      </c>
+      <c r="E21" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B22" t="s">
+        <v>51</v>
+      </c>
+      <c r="C22" t="s">
+        <v>54</v>
+      </c>
+      <c r="D22" t="s">
+        <v>53</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
+        <v>55</v>
+      </c>
+      <c r="B23" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" t="s">
+        <v>57</v>
+      </c>
+      <c r="D23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" t="s">
+        <v>59</v>
+      </c>
+      <c r="D24" t="s">
+        <v>58</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A25" t="s">
+        <v>55</v>
+      </c>
+      <c r="B25" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" t="s">
+        <v>60</v>
+      </c>
+      <c r="D25" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A26" t="s">
+        <v>55</v>
+      </c>
+      <c r="B26" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" t="s">
+        <v>61</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A27" t="s">
+        <v>62</v>
+      </c>
+      <c r="B27" t="s">
+        <v>63</v>
+      </c>
+      <c r="C27" t="s">
+        <v>64</v>
+      </c>
+      <c r="D27" t="s">
+        <v>41</v>
+      </c>
+      <c r="E27" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A28" t="s">
+        <v>62</v>
+      </c>
+      <c r="B28" t="s">
+        <v>63</v>
+      </c>
+      <c r="C28" t="s">
+        <v>65</v>
+      </c>
+      <c r="D28" t="s">
+        <v>41</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>67</v>
+      </c>
+      <c r="D29" t="s">
+        <v>68</v>
+      </c>
+      <c r="E29" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A30" t="s">
+        <v>62</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>69</v>
+      </c>
+      <c r="D30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A31" t="s">
+        <v>70</v>
+      </c>
+      <c r="B31" t="s">
+        <v>71</v>
+      </c>
+      <c r="C31" t="s">
+        <v>72</v>
+      </c>
+      <c r="D31" t="s">
+        <v>41</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C32" t="s">
+        <v>75</v>
+      </c>
+      <c r="D32" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" t="s">
+        <v>74</v>
+      </c>
+      <c r="C33" t="s">
+        <v>77</v>
+      </c>
+      <c r="D33" t="s">
+        <v>76</v>
+      </c>
+      <c r="E33" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B34" t="s">
+        <v>78</v>
+      </c>
+      <c r="C34" t="s">
+        <v>79</v>
+      </c>
+      <c r="D34" t="s">
+        <v>68</v>
+      </c>
+      <c r="E34" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A35" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>80</v>
+      </c>
+      <c r="D35" t="s">
+        <v>68</v>
+      </c>
+      <c r="E35" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41C6E4B9-F4C8-42F5-ACCC-B5191EC9D940}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A049646C-EF53-47C1-BBB0-3E50DD1EFD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
   <si>
     <t>Location</t>
   </si>
@@ -37,25 +48,31 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Camberwell</t>
-  </si>
-  <si>
-    <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
-  </si>
-  <si>
-    <t>29/12/20 12:30pm-1:30pm</t>
-  </si>
-  <si>
-    <t>Case ate at restaurant</t>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
+  </si>
+  <si>
+    <t>28-12-2020 1:20pm-2:30pm</t>
+  </si>
+  <si>
+    <t>Case ate in store</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>30/12/20 12:30pm-1:30pm</t>
-  </si>
-  <si>
-    <t>old</t>
+    <t>McKinnon</t>
+  </si>
+  <si>
+    <t>260 McKinnon Road, McKinnon VIC 3204</t>
+  </si>
+  <si>
+    <t>23-12-2020 4:00pm-6:00pm</t>
+  </si>
+  <si>
+    <t>Case had hair cut in store</t>
   </si>
 </sst>
 </file>
@@ -421,15 +438,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.06640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.46484375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -469,19 +486,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A049646C-EF53-47C1-BBB0-3E50DD1EFD02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE78782B-53F0-4875-9414-886EC79B86DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Location</t>
   </si>
@@ -48,31 +37,25 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Hampton</t>
-  </si>
-  <si>
-    <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
-  </si>
-  <si>
-    <t>28-12-2020 1:20pm-2:30pm</t>
-  </si>
-  <si>
-    <t>Case ate in store</t>
+    <t>Caulfield</t>
+  </si>
+  <si>
+    <t>Metro Train - Frankston line</t>
+  </si>
+  <si>
+    <t>30/12/20 4:30pm-17:00pm</t>
+  </si>
+  <si>
+    <t>Case caught train from Caulfield to Cheltenham</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>30/12/20 4:30pm-5:00pm</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>McKinnon</t>
-  </si>
-  <si>
-    <t>260 McKinnon Road, McKinnon VIC 3204</t>
-  </si>
-  <si>
-    <t>23-12-2020 4:00pm-6:00pm</t>
-  </si>
-  <si>
-    <t>Case had hair cut in store</t>
   </si>
 </sst>
 </file>
@@ -91,6 +74,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -438,15 +422,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.46484375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="38.46484375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -486,19 +470,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE78782B-53F0-4875-9414-886EC79B86DB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AE73A3-41C3-4AD8-9E4C-B3475606E867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
   <si>
     <t>Location</t>
   </si>
@@ -37,25 +48,49 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Caulfield</t>
-  </si>
-  <si>
-    <t>Metro Train - Frankston line</t>
-  </si>
-  <si>
-    <t>30/12/20 4:30pm-17:00pm</t>
-  </si>
-  <si>
-    <t>Case caught train from Caulfield to Cheltenham</t>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Brighton Beach</t>
+  </si>
+  <si>
+    <t>26/12/20 12pm - 1pm</t>
+  </si>
+  <si>
+    <t>Case attended beach</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Cheltenham</t>
+  </si>
+  <si>
+    <t>Two Bob Snob, 256 Charman Road</t>
+  </si>
+  <si>
+    <t>22/12/2020 1pm - 2pm</t>
+  </si>
+  <si>
+    <t>Case attended Venue</t>
+  </si>
+  <si>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
+  </si>
+  <si>
+    <t>29/12/20 6:00pm-7:00pm</t>
+  </si>
+  <si>
+    <t>Case attended restaurant</t>
   </si>
   <si>
     <t>old</t>
   </si>
   <si>
-    <t>30/12/20 4:30pm-5:00pm</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>29/12/20 6:00pm-7:30pm</t>
   </si>
 </sst>
 </file>
@@ -419,18 +454,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="7.59765625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.46484375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -470,19 +505,53 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14AE73A3-41C3-4AD8-9E4C-B3475606E867}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7544CFB-DF1E-4086-B849-405668CCC7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
   <si>
     <t>Location</t>
   </si>
@@ -48,6 +48,21 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>Abbotsford</t>
+  </si>
+  <si>
+    <t>Bodriggy Brewing Company  245 Johnston Street, Abbotsford VIC 3067</t>
+  </si>
+  <si>
+    <t>28/12/20 2:50pm-5:30pm</t>
+  </si>
+  <si>
+    <t>Case dined at venue</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
     <t>Brighton</t>
   </si>
   <si>
@@ -60,37 +75,103 @@
     <t>Case attended beach</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Cheltenham</t>
-  </si>
-  <si>
-    <t>Two Bob Snob, 256 Charman Road</t>
-  </si>
-  <si>
-    <t>22/12/2020 1pm - 2pm</t>
-  </si>
-  <si>
-    <t>Case attended Venue</t>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Docklands</t>
+  </si>
+  <si>
+    <t>Melbourne Boat Hire - Yarra River Cruise. 45 Newquay Promenade, Docklands VIC 3008</t>
+  </si>
+  <si>
+    <t>28/12/2020 11.26am-2:00pm</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
+  </si>
+  <si>
+    <t>28-12-2020 1:00pm-2:00pm</t>
+  </si>
+  <si>
+    <t>Case ate in store</t>
+  </si>
+  <si>
+    <t>28-12-2020 1:20pm-2:30pm</t>
+  </si>
+  <si>
+    <t>28-12-2020 1:30pm-2:30pm</t>
+  </si>
+  <si>
+    <t>McKinnon</t>
+  </si>
+  <si>
+    <t>260 McKinnon Road, McKinnon VIC 3204</t>
+  </si>
+  <si>
+    <t>23-12-2020 4:00pm-6:00pm</t>
+  </si>
+  <si>
+    <t>Case had hair cut in store</t>
   </si>
   <si>
     <t>Melbourne</t>
   </si>
   <si>
-    <t>Fonda Mexican Flinders Lane  31 Flinders Lane Melbourne</t>
-  </si>
-  <si>
-    <t>29/12/20 6:00pm-7:00pm</t>
+    <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+  </si>
+  <si>
+    <t>28/12/2020 10pm - 12.30am</t>
+  </si>
+  <si>
+    <t>Moorabin</t>
+  </si>
+  <si>
+    <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+  </si>
+  <si>
+    <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
+  </si>
+  <si>
+    <t>Cases workplace</t>
+  </si>
+  <si>
+    <t>Sandringham Line</t>
+  </si>
+  <si>
+    <t>Metro Train line Sandringham</t>
+  </si>
+  <si>
+    <t>28/12/20 7pm -7.50pm</t>
+  </si>
+  <si>
+    <t>Travelled by train from Sandringham Station to Parliament Station</t>
+  </si>
+  <si>
+    <t>Southbank</t>
+  </si>
+  <si>
+    <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
+  </si>
+  <si>
+    <t>25/12/20 12:00pm-02:30pm</t>
+  </si>
+  <si>
+    <t>Case attended bar</t>
+  </si>
+  <si>
+    <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
+  </si>
+  <si>
+    <t>23/12/20 8:00pm-10:00pm</t>
   </si>
   <si>
     <t>Case attended restaurant</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>29/12/20 6:00pm-7:30pm</t>
   </si>
 </sst>
 </file>
@@ -454,18 +535,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="70.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.3984375" customWidth="1"/>
+    <col min="4" max="4" width="53.59765625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -517,41 +598,177 @@
         <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="E5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B7" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
+      <c r="C11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D11" t="s">
+        <v>39</v>
+      </c>
+      <c r="E11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" t="s">
+        <v>44</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7544CFB-DF1E-4086-B849-405668CCC7B6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7798D9-40C8-4E51-8772-C1D642997ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Location</t>
   </si>
@@ -48,130 +37,19 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Abbotsford</t>
-  </si>
-  <si>
-    <t>Bodriggy Brewing Company  245 Johnston Street, Abbotsford VIC 3067</t>
-  </si>
-  <si>
-    <t>28/12/20 2:50pm-5:30pm</t>
+    <t>Collingwood</t>
+  </si>
+  <si>
+    <t>Stomping Ground Brewing Company, 100 Gipps Street, Collingwood VIC 3066</t>
+  </si>
+  <si>
+    <t>28/12/20 6:00pm-7:30pm</t>
   </si>
   <si>
     <t>Case dined at venue</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Brighton Beach</t>
-  </si>
-  <si>
-    <t>26/12/20 12pm - 1pm</t>
-  </si>
-  <si>
-    <t>Case attended beach</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Docklands</t>
-  </si>
-  <si>
-    <t>Melbourne Boat Hire - Yarra River Cruise. 45 Newquay Promenade, Docklands VIC 3008</t>
-  </si>
-  <si>
-    <t>28/12/2020 11.26am-2:00pm</t>
-  </si>
-  <si>
-    <t>Case attended venue</t>
-  </si>
-  <si>
-    <t>Hampton</t>
-  </si>
-  <si>
-    <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
-  </si>
-  <si>
-    <t>28-12-2020 1:00pm-2:00pm</t>
-  </si>
-  <si>
-    <t>Case ate in store</t>
-  </si>
-  <si>
-    <t>28-12-2020 1:20pm-2:30pm</t>
-  </si>
-  <si>
-    <t>28-12-2020 1:30pm-2:30pm</t>
-  </si>
-  <si>
-    <t>McKinnon</t>
-  </si>
-  <si>
-    <t>260 McKinnon Road, McKinnon VIC 3204</t>
-  </si>
-  <si>
-    <t>23-12-2020 4:00pm-6:00pm</t>
-  </si>
-  <si>
-    <t>Case had hair cut in store</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
-  </si>
-  <si>
-    <t>28/12/2020 10pm - 12.30am</t>
-  </si>
-  <si>
-    <t>Moorabin</t>
-  </si>
-  <si>
-    <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
-  </si>
-  <si>
-    <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
-  </si>
-  <si>
-    <t>Cases workplace</t>
-  </si>
-  <si>
-    <t>Sandringham Line</t>
-  </si>
-  <si>
-    <t>Metro Train line Sandringham</t>
-  </si>
-  <si>
-    <t>28/12/20 7pm -7.50pm</t>
-  </si>
-  <si>
-    <t>Travelled by train from Sandringham Station to Parliament Station</t>
-  </si>
-  <si>
-    <t>Southbank</t>
-  </si>
-  <si>
-    <t>Left Bank Melbourne Restaurant and Cocktail Bar  1 Southbank Boulevard, Southbank</t>
-  </si>
-  <si>
-    <t>25/12/20 12:00pm-02:30pm</t>
-  </si>
-  <si>
-    <t>Case attended bar</t>
-  </si>
-  <si>
-    <t>Rockpool Bar and Grill, Crown Casino  8 Whiteman Street, Southbank</t>
-  </si>
-  <si>
-    <t>23/12/20 8:00pm-10:00pm</t>
-  </si>
-  <si>
-    <t>Case attended restaurant</t>
   </si>
 </sst>
 </file>
@@ -535,18 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="14.796875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.3984375" customWidth="1"/>
-    <col min="4" max="4" width="53.59765625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="62.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.53125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -584,193 +462,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>22</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A9" t="s">
-        <v>29</v>
-      </c>
-      <c r="B9" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" t="s">
-        <v>33</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A11" t="s">
-        <v>36</v>
-      </c>
-      <c r="B11" t="s">
-        <v>37</v>
-      </c>
-      <c r="C11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D11" t="s">
-        <v>39</v>
-      </c>
-      <c r="E11" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A12" t="s">
-        <v>40</v>
-      </c>
-      <c r="B12" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" t="s">
-        <v>42</v>
-      </c>
-      <c r="D12" t="s">
-        <v>43</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A13" t="s">
-        <v>40</v>
-      </c>
-      <c r="B13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C13" t="s">
-        <v>45</v>
-      </c>
-      <c r="D13" t="s">
-        <v>46</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC7798D9-40C8-4E51-8772-C1D642997ADE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBEF5D7-FBFC-4537-A4EB-447C117958C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
   <si>
     <t>Location</t>
   </si>
@@ -37,19 +37,34 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Collingwood</t>
-  </si>
-  <si>
-    <t>Stomping Ground Brewing Company, 100 Gipps Street, Collingwood VIC 3066</t>
-  </si>
-  <si>
-    <t>28/12/20 6:00pm-7:30pm</t>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
+  </si>
+  <si>
+    <t>28/12/2020 10:30pm-12.00am</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>28/12/2020 10pm - 12.30am</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Nandos  27 Elizabeth Street, Melbourne</t>
+  </si>
+  <si>
+    <t>01/01/2021 1:00am - 2:00am</t>
   </si>
   <si>
     <t>Case dined at venue</t>
-  </si>
-  <si>
-    <t>new</t>
   </si>
 </sst>
 </file>
@@ -413,18 +428,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="62.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.59765625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,6 +477,40 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" t="s">
+        <v>14</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FBEF5D7-FBFC-4537-A4EB-447C117958C5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16A605D-0115-4269-81DB-88C25E3CEB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Location</t>
   </si>
@@ -37,6 +48,27 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>Albert Park</t>
+  </si>
+  <si>
+    <t>The Guilty Moose Cafe  143 Victoria Avenue, Albert Park VIC 3206</t>
+  </si>
+  <si>
+    <t>21/12/20 1pm-1:30pm</t>
+  </si>
+  <si>
+    <t>Case ate at cafe</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>30/12/20 1pm-1:30pm</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>Melbourne</t>
   </si>
   <si>
@@ -49,22 +81,25 @@
     <t>Case attended venue</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>28/12/2020 10pm - 12.30am</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Nandos  27 Elizabeth Street, Melbourne</t>
-  </si>
-  <si>
-    <t>01/01/2021 1:00am - 2:00am</t>
-  </si>
-  <si>
-    <t>Case dined at venue</t>
+    <t>Metro Train - Pakenham line</t>
+  </si>
+  <si>
+    <t>01/01/21 3:00am-4:00am</t>
+  </si>
+  <si>
+    <t>Case caught train from Flinders St to Westall Station</t>
+  </si>
+  <si>
+    <t>Moorabin</t>
+  </si>
+  <si>
+    <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
+  </si>
+  <si>
+    <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
+  </si>
+  <si>
+    <t>Cases workplace</t>
   </si>
 </sst>
 </file>
@@ -428,18 +463,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.53125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="97.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -496,19 +531,53 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
+      <c r="B5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C5" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" t="s">
+        <v>22</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C16A605D-0115-4269-81DB-88C25E3CEB73}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46136C-6CA3-4701-9BE9-F66E2B64342F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
   <si>
     <t>Location</t>
   </si>
@@ -48,58 +37,58 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Albert Park</t>
-  </si>
-  <si>
-    <t>The Guilty Moose Cafe  143 Victoria Avenue, Albert Park VIC 3206</t>
-  </si>
-  <si>
-    <t>21/12/20 1pm-1:30pm</t>
-  </si>
-  <si>
-    <t>Case ate at cafe</t>
+    <t>Camberwell</t>
+  </si>
+  <si>
+    <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
+  </si>
+  <si>
+    <t>29/12/20 12:30pm-1:30pm</t>
+  </si>
+  <si>
+    <t>Case ate at restaurant</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Clayton South</t>
+  </si>
+  <si>
+    <t>Metro Train - Pakenham line</t>
+  </si>
+  <si>
+    <t>31/12/20 9:00pm-9:30pm</t>
+  </si>
+  <si>
+    <t>Case caught train from Westall Station to Flinders St.</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>30/12/20 1pm-1:30pm</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
     <t>Melbourne</t>
   </si>
   <si>
-    <t>Melbourne Central Lion Hotel, 211 La Trobe Street</t>
-  </si>
-  <si>
-    <t>28/12/2020 10:30pm-12.00am</t>
-  </si>
-  <si>
-    <t>Case attended venue</t>
-  </si>
-  <si>
-    <t>Metro Train - Pakenham line</t>
-  </si>
-  <si>
     <t>01/01/21 3:00am-4:00am</t>
   </si>
   <si>
     <t>Case caught train from Flinders St to Westall Station</t>
   </si>
   <si>
-    <t>Moorabin</t>
-  </si>
-  <si>
-    <t>Grape and Grain Liquor Cellars, 14/16 Station St</t>
-  </si>
-  <si>
-    <t>21/12/20 2pm - 10pm  22/12/20 10am - 6pm  24/12/20 1pm - 10pm  28/12/20 8.05pm - 8.47pm  29/12/20 12pm - 4pm</t>
-  </si>
-  <si>
-    <t>Cases workplace</t>
+    <t>01/01/21 4:30am-5:00am</t>
+  </si>
+  <si>
+    <t>Nandos  27 Elizabeth Street, Melbourne</t>
+  </si>
+  <si>
+    <t>01/01/2021 1:00am - 2:00am</t>
+  </si>
+  <si>
+    <t>Case dined at venue</t>
+  </si>
+  <si>
+    <t>01/01/2021 2:00am - 2:30am</t>
   </si>
 </sst>
 </file>
@@ -463,18 +452,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="53.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="97.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="42.796875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -514,70 +503,87 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="D5" t="s">
-        <v>18</v>
-      </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" t="s">
         <v>19</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>20</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>21</v>
       </c>
-      <c r="D6" t="s">
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
-        <v>11</v>
+      <c r="D7" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E46136C-6CA3-4701-9BE9-F66E2B64342F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D39E8E-9A5C-4B42-876E-BAD390009435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Location</t>
   </si>
@@ -37,58 +37,19 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Camberwell</t>
-  </si>
-  <si>
-    <t>Tao Dumplings  1 Evans Place, Camberwell VIC 3124</t>
-  </si>
-  <si>
-    <t>29/12/20 12:30pm-1:30pm</t>
-  </si>
-  <si>
-    <t>Case ate at restaurant</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Clayton South</t>
-  </si>
-  <si>
-    <t>Metro Train - Pakenham line</t>
-  </si>
-  <si>
-    <t>31/12/20 9:00pm-9:30pm</t>
-  </si>
-  <si>
-    <t>Case caught train from Westall Station to Flinders St.</t>
+    <t>Nunawading</t>
+  </si>
+  <si>
+    <t>Good Guys, 7/372 Whitehorse Road, Nunawading</t>
+  </si>
+  <si>
+    <t>29/12/20, 9:30am-10:00am</t>
+  </si>
+  <si>
+    <t>Case shopped in store</t>
   </si>
   <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>01/01/21 3:00am-4:00am</t>
-  </si>
-  <si>
-    <t>Case caught train from Flinders St to Westall Station</t>
-  </si>
-  <si>
-    <t>01/01/21 4:30am-5:00am</t>
-  </si>
-  <si>
-    <t>Nandos  27 Elizabeth Street, Melbourne</t>
-  </si>
-  <si>
-    <t>01/01/2021 1:00am - 2:00am</t>
-  </si>
-  <si>
-    <t>Case dined at venue</t>
-  </si>
-  <si>
-    <t>01/01/2021 2:00am - 2:30am</t>
   </si>
 </sst>
 </file>
@@ -452,18 +413,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="11.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="42.1328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="42.796875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="40.265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.9296875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -501,91 +462,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>15</v>
-      </c>
-      <c r="B5" t="s">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99D39E8E-9A5C-4B42-876E-BAD390009435}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9299DC0-53F9-42EE-AFFE-060D039DCC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28808" yWindow="-8" windowWidth="28816" windowHeight="5198" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t>Location</t>
   </si>
@@ -37,19 +37,67 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Nunawading</t>
-  </si>
-  <si>
-    <t>Good Guys, 7/372 Whitehorse Road, Nunawading</t>
-  </si>
-  <si>
-    <t>29/12/20, 9:30am-10:00am</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
+    <t>Abbotsford</t>
+  </si>
+  <si>
+    <t>Bodriggy Brewing Company  245 Johnston Street, Abbotsford VIC 3067</t>
+  </si>
+  <si>
+    <t>28/12/20 2:50pm-5:30pm</t>
+  </si>
+  <si>
+    <t>Case dined at venue</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>Albert Park</t>
+  </si>
+  <si>
+    <t>The Guilty Moose Cafe  143 Victoria Avenue, Albert Park VIC 3206</t>
+  </si>
+  <si>
+    <t>21/12/20 1pm-1:30pm</t>
+  </si>
+  <si>
+    <t>Case ate at cafe</t>
+  </si>
+  <si>
+    <t>Hampton</t>
+  </si>
+  <si>
+    <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
+  </si>
+  <si>
+    <t>28-12-2020 1:30pm-2:30pm</t>
+  </si>
+  <si>
+    <t>Case ate in store</t>
+  </si>
+  <si>
+    <t>Springvale</t>
+  </si>
+  <si>
+    <t>IKEA Springvale, 917 Princes Hwy</t>
+  </si>
+  <si>
+    <t>30/12/20, 4:00pm-6:30pm</t>
+  </si>
+  <si>
+    <t>Case shopped at store and dined at cafe</t>
   </si>
   <si>
     <t>new</t>
+  </si>
+  <si>
+    <t>Springvale Shopping Centre,  46-58 Buckingham Avenue</t>
+  </si>
+  <si>
+    <t>29/12/20, 11:00am-12:30pm</t>
+  </si>
+  <si>
+    <t>Case shopped</t>
   </si>
 </sst>
 </file>
@@ -413,7 +461,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection sqref="A1:E1048576"/>
@@ -421,10 +469,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="40.265625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.9296875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.9296875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -462,6 +510,74 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9299DC0-53F9-42EE-AFFE-060D039DCC31}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF3992-1629-404A-8C7F-10BF61CB2C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28808" yWindow="-8" windowWidth="28816" windowHeight="5198" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Location</t>
   </si>
@@ -37,67 +37,25 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Abbotsford</t>
-  </si>
-  <si>
-    <t>Bodriggy Brewing Company  245 Johnston Street, Abbotsford VIC 3067</t>
-  </si>
-  <si>
-    <t>28/12/20 2:50pm-5:30pm</t>
-  </si>
-  <si>
-    <t>Case dined at venue</t>
+    <t>Springvale</t>
+  </si>
+  <si>
+    <t>IKEA Springvale, 917 Princes Hwy</t>
+  </si>
+  <si>
+    <t>30/12/20, 4:00pm-6:30pm</t>
+  </si>
+  <si>
+    <t>Case shopped at store</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Case shopped at store and dined at cafe</t>
   </si>
   <si>
     <t>old</t>
-  </si>
-  <si>
-    <t>Albert Park</t>
-  </si>
-  <si>
-    <t>The Guilty Moose Cafe  143 Victoria Avenue, Albert Park VIC 3206</t>
-  </si>
-  <si>
-    <t>21/12/20 1pm-1:30pm</t>
-  </si>
-  <si>
-    <t>Case ate at cafe</t>
-  </si>
-  <si>
-    <t>Hampton</t>
-  </si>
-  <si>
-    <t>Merrymen Cafe, 2 Small Street, Hampton VIC</t>
-  </si>
-  <si>
-    <t>28-12-2020 1:30pm-2:30pm</t>
-  </si>
-  <si>
-    <t>Case ate in store</t>
-  </si>
-  <si>
-    <t>Springvale</t>
-  </si>
-  <si>
-    <t>IKEA Springvale, 917 Princes Hwy</t>
-  </si>
-  <si>
-    <t>30/12/20, 4:00pm-6:30pm</t>
-  </si>
-  <si>
-    <t>Case shopped at store and dined at cafe</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Springvale Shopping Centre,  46-58 Buckingham Avenue</t>
-  </si>
-  <si>
-    <t>29/12/20, 11:00am-12:30pm</t>
-  </si>
-  <si>
-    <t>Case shopped</t>
   </si>
 </sst>
 </file>
@@ -461,17 +419,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.53125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.9296875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="22.06640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="32.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
@@ -512,70 +470,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="E3" t="s">
         <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-      <c r="B5" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>18</v>
-      </c>
-      <c r="B6" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E6" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECCF3992-1629-404A-8C7F-10BF61CB2C2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA2CBC-4EB9-4AE9-8E35-7F7A26951D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Location</t>
   </si>
@@ -37,22 +37,31 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Springvale</t>
-  </si>
-  <si>
-    <t>IKEA Springvale, 917 Princes Hwy</t>
-  </si>
-  <si>
-    <t>30/12/20, 4:00pm-6:30pm</t>
-  </si>
-  <si>
-    <t>Case shopped at store</t>
+    <t>Emerald</t>
+  </si>
+  <si>
+    <t>Lakeside Paddle Boats, Emerald Lake Park</t>
+  </si>
+  <si>
+    <t>31/12/20 3:30pm - 5:30pm</t>
+  </si>
+  <si>
+    <t>Case visited venue</t>
   </si>
   <si>
     <t>new</t>
   </si>
   <si>
-    <t>Case shopped at store and dined at cafe</t>
+    <t>Melbourne</t>
+  </si>
+  <si>
+    <t>Nandos  27 Elizabeth Street, Melbourne</t>
+  </si>
+  <si>
+    <t>01/01/2021 2:00am - 2:30am</t>
+  </si>
+  <si>
+    <t>Case dined at venue</t>
   </si>
   <si>
     <t>old</t>
@@ -422,15 +431,15 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="8.86328125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.06640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="22.06640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="32.3984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="33.796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.53125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -470,19 +479,19 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -1,94 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFEA2CBC-4EB9-4AE9-8E35-7F7A26951D82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Site</t>
-  </si>
-  <si>
-    <t>Exposure period</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Exist</t>
-  </si>
-  <si>
-    <t>Emerald</t>
-  </si>
-  <si>
-    <t>Lakeside Paddle Boats, Emerald Lake Park</t>
-  </si>
-  <si>
-    <t>31/12/20 3:30pm - 5:30pm</t>
-  </si>
-  <si>
-    <t>Case visited venue</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>Melbourne</t>
-  </si>
-  <si>
-    <t>Nandos  27 Elizabeth Street, Melbourne</t>
-  </si>
-  <si>
-    <t>01/01/2021 2:00am - 2:30am</t>
-  </si>
-  <si>
-    <t>Case dined at venue</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -103,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -122,24 +57,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -427,71 +353,98 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
-  <cols>
-    <col min="1" max="1" width="9.3984375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="33.796875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.3984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.53125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Site</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Exposure period</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Exist</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Doveton</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>26/12/20 6:30pm</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>Case attended English service</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>old</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Doveton</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>26/12/20 6:30pm - 8:30pm</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>Case attended English service</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>new</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -1,37 +1,112 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C666579E-3C9E-43EA-8979-56D2CEB5640F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Site</t>
+  </si>
+  <si>
+    <t>Exposure period</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Exist</t>
+  </si>
+  <si>
+    <t>Hallam</t>
+  </si>
+  <si>
+    <t>Coles Hallam, 2 Princes Domain Drive, Hallam, VIC 3803</t>
+  </si>
+  <si>
+    <t>30/12/20 6:15am - 6:30am</t>
+  </si>
+  <si>
+    <t>Case shopped in store</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>Moorabbin</t>
+  </si>
+  <si>
+    <t>Costco Moorabbin, 8 Chifley Drive, Moorabbin Airport, VIC 3194</t>
+  </si>
+  <si>
+    <t>30/12/20 10:45am - 12:15pm</t>
+  </si>
+  <si>
+    <t>Mordialloc</t>
+  </si>
+  <si>
+    <t>Woodlands Golf Club, 109 White Street, Mordialloc, VIC 3195</t>
+  </si>
+  <si>
+    <t>28/12/20 12:00pm - 6:00pm</t>
+  </si>
+  <si>
+    <t>Case attended course</t>
+  </si>
+  <si>
+    <t>Wonthaggi</t>
+  </si>
+  <si>
+    <t>Wonthaggi Plaza Shopping Centre, 2 Biggs Drive, Wonthaggi, VIC 3995</t>
+  </si>
+  <si>
+    <t>28/12/20 1:30pm - 2:30pm</t>
+  </si>
+  <si>
+    <t>Kmart - shopped for 15 mins</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +121,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,15 +140,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -353,98 +445,105 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:E3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <cols>
+    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.46484375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Location</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Site</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Exposure period</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Notes</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Exist</t>
-        </is>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Doveton</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>26/12/20 6:30pm</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Case attended English service</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>old</t>
-        </is>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Doveton</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Holy Family Parish Doveton Catholic  100 Power Road, Doveton VIC 3177</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>26/12/20 6:30pm - 8:30pm</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Case attended English service</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>new</t>
-        </is>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C666579E-3C9E-43EA-8979-56D2CEB5640F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFE8704-0A8A-4F17-A02D-EE1D67F6AB0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
   <si>
     <t>Location</t>
   </si>
@@ -37,6 +37,21 @@
     <t>Exist</t>
   </si>
   <si>
+    <t>Brighton</t>
+  </si>
+  <si>
+    <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
+  </si>
+  <si>
+    <t>24/12/20 10:00am-11:05am</t>
+  </si>
+  <si>
+    <t>Case ate at restaurant</t>
+  </si>
+  <si>
+    <t>old</t>
+  </si>
+  <si>
     <t>Hallam</t>
   </si>
   <si>
@@ -47,9 +62,6 @@
   </si>
   <si>
     <t>Case shopped in store</t>
-  </si>
-  <si>
-    <t>new</t>
   </si>
   <si>
     <t>Moorabbin</t>
@@ -101,7 +113,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -446,10 +457,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -506,7 +517,7 @@
         <v>12</v>
       </c>
       <c r="D3" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
@@ -514,16 +525,16 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
         <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s">
-        <v>16</v>
       </c>
       <c r="E4" t="s">
         <v>9</v>
@@ -543,6 +554,23 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DFE8704-0A8A-4F17-A02D-EE1D67F6AB0D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1D84B0-E642-4905-8569-8477C0862E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Location</t>
   </si>
@@ -37,64 +37,25 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Brighton</t>
-  </si>
-  <si>
-    <t>Sons of Mary Restaurant  14 Spink St, Brighton VIC 3186</t>
-  </si>
-  <si>
-    <t>24/12/20 10:00am-11:05am</t>
-  </si>
-  <si>
-    <t>Case ate at restaurant</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>Hallam</t>
-  </si>
-  <si>
-    <t>Coles Hallam, 2 Princes Domain Drive, Hallam, VIC 3803</t>
-  </si>
-  <si>
-    <t>30/12/20 6:15am - 6:30am</t>
-  </si>
-  <si>
-    <t>Case shopped in store</t>
-  </si>
-  <si>
-    <t>Moorabbin</t>
-  </si>
-  <si>
-    <t>Costco Moorabbin, 8 Chifley Drive, Moorabbin Airport, VIC 3194</t>
-  </si>
-  <si>
-    <t>30/12/20 10:45am - 12:15pm</t>
-  </si>
-  <si>
-    <t>Mordialloc</t>
-  </si>
-  <si>
-    <t>Woodlands Golf Club, 109 White Street, Mordialloc, VIC 3195</t>
-  </si>
-  <si>
-    <t>28/12/20 12:00pm - 6:00pm</t>
-  </si>
-  <si>
-    <t>Case attended course</t>
-  </si>
-  <si>
-    <t>Wonthaggi</t>
-  </si>
-  <si>
-    <t>Wonthaggi Plaza Shopping Centre, 2 Biggs Drive, Wonthaggi, VIC 3995</t>
-  </si>
-  <si>
-    <t>28/12/20 1:30pm - 2:30pm</t>
-  </si>
-  <si>
-    <t>Kmart - shopped for 15 mins</t>
+    <t>Point Cook</t>
+  </si>
+  <si>
+    <t>The Coffeeologist Cafe, 70/300 Point Cook Rd , Point Cook VIC 3030</t>
+  </si>
+  <si>
+    <t>11:00am - 11:40am 8/2/2021</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>The Coffeeologist Cafe, 70/300 Point Cook Rd, Point Cook VIC 3030</t>
+  </si>
+  <si>
+    <t>11:30am - 12:10pm 10/2/2021</t>
   </si>
 </sst>
 </file>
@@ -113,6 +74,7 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -457,18 +419,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1048576"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.46484375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="56.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="24.46484375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.53125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -508,69 +470,18 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>10</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>11</v>
       </c>
-      <c r="C3" t="s">
-        <v>12</v>
-      </c>
       <c r="D3" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D4" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>17</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>21</v>
-      </c>
-      <c r="B6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" t="s">
         <v>9</v>
       </c>
     </row>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,19 +8,30 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE1D84B0-E642-4905-8569-8477C0862E2F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F129135-838D-4E36-96EC-A1DCD3270910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
   <si>
     <t>Location</t>
   </si>
@@ -40,22 +51,46 @@
     <t>Point Cook</t>
   </si>
   <si>
+    <t>The Coffeeologist Cafe  70/300 Point Cook Rd  Point Cook VIC 3030</t>
+  </si>
+  <si>
+    <t>11:00am - 11:40am  8/2/2021</t>
+  </si>
+  <si>
+    <t>Case attended venue</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>11:30am - 12:10pm  0/2/2021</t>
+  </si>
+  <si>
     <t>The Coffeeologist Cafe, 70/300 Point Cook Rd , Point Cook VIC 3030</t>
   </si>
   <si>
     <t>11:00am - 11:40am 8/2/2021</t>
   </si>
   <si>
-    <t>Case attended venue</t>
-  </si>
-  <si>
-    <t>new</t>
+    <t>old</t>
   </si>
   <si>
     <t>The Coffeeologist Cafe, 70/300 Point Cook Rd, Point Cook VIC 3030</t>
   </si>
   <si>
     <t>11:30am - 12:10pm 10/2/2021</t>
+  </si>
+  <si>
+    <t>Sunbury</t>
+  </si>
+  <si>
+    <t>Sunbury Square Shopping Centre  2-28 Evans St  Sunbury VIC 3429</t>
+  </si>
+  <si>
+    <t>3:40pm - 4:30pm 5/2/2021</t>
+  </si>
+  <si>
+    <t>Sunbury Square Shopping Centre, 2-28 Evans street, Sunbury</t>
   </si>
 </sst>
 </file>
@@ -74,7 +109,6 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -419,10 +453,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -473,16 +507,84 @@
         <v>5</v>
       </c>
       <c r="B3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" t="s">
         <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>11</v>
       </c>
       <c r="D3" t="s">
         <v>8</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F129135-838D-4E36-96EC-A1DCD3270910}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C43A90F-779B-4BF7-9CA1-65F59DD2B029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
   <si>
     <t>Location</t>
   </si>
@@ -48,13 +48,13 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Point Cook</t>
-  </si>
-  <si>
-    <t>The Coffeeologist Cafe  70/300 Point Cook Rd  Point Cook VIC 3030</t>
-  </si>
-  <si>
-    <t>11:00am - 11:40am  8/2/2021</t>
+    <t>Pascoe Vale</t>
+  </si>
+  <si>
+    <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
+  </si>
+  <si>
+    <t>4:30pm - 5:00pm  8/2/2021</t>
   </si>
   <si>
     <t>Case attended venue</t>
@@ -63,34 +63,7 @@
     <t>new</t>
   </si>
   <si>
-    <t>11:30am - 12:10pm  0/2/2021</t>
-  </si>
-  <si>
-    <t>The Coffeeologist Cafe, 70/300 Point Cook Rd , Point Cook VIC 3030</t>
-  </si>
-  <si>
-    <t>11:00am - 11:40am 8/2/2021</t>
-  </si>
-  <si>
-    <t>old</t>
-  </si>
-  <si>
-    <t>The Coffeeologist Cafe, 70/300 Point Cook Rd, Point Cook VIC 3030</t>
-  </si>
-  <si>
-    <t>11:30am - 12:10pm 10/2/2021</t>
-  </si>
-  <si>
-    <t>Sunbury</t>
-  </si>
-  <si>
-    <t>Sunbury Square Shopping Centre  2-28 Evans St  Sunbury VIC 3429</t>
-  </si>
-  <si>
-    <t>3:40pm - 4:30pm 5/2/2021</t>
-  </si>
-  <si>
-    <t>Sunbury Square Shopping Centre, 2-28 Evans street, Sunbury</t>
+    <t>5:30pm - 6:00pm  8/2/2021</t>
   </si>
 </sst>
 </file>
@@ -453,17 +426,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E7"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.53125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.53125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.73046875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
@@ -519,74 +492,6 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>15</v>
-      </c>
-      <c r="D5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A6" t="s">
-        <v>16</v>
-      </c>
-      <c r="B6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" t="s">
-        <v>8</v>
-      </c>
-      <c r="E6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" t="s">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>13</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
+++ b/case-locations-and-outbreaks_case-alerts--public-exposure-sites_1_diff.xlsx
@@ -8,30 +8,19 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\covid-19-vic-au\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C43A90F-779B-4BF7-9CA1-65F59DD2B029}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3A2251A-B9B9-44CB-90D3-C34201112B74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28898" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="12">
   <si>
     <t>Location</t>
   </si>
@@ -48,22 +37,25 @@
     <t>Exist</t>
   </si>
   <si>
-    <t>Pascoe Vale</t>
-  </si>
-  <si>
-    <t>Elite Swimming Pascoe Vale, 8 Attercliffe Avenue</t>
-  </si>
-  <si>
-    <t>4:30pm - 5:00pm  8/2/2021</t>
+    <t>Point Cook</t>
+  </si>
+  <si>
+    <t>The Coffeeologist Cafe  70/300 Point Cook Rd  Point Cook VIC 3030</t>
+  </si>
+  <si>
+    <t>11:30am - 12:10pm  0/2/2021</t>
   </si>
   <si>
     <t>Case attended venue</t>
   </si>
   <si>
+    <t>old</t>
+  </si>
+  <si>
+    <t>11:30am - 12:10pm  10/2/2021</t>
+  </si>
+  <si>
     <t>new</t>
-  </si>
-  <si>
-    <t>5:30pm - 6:00pm  8/2/2021</t>
   </si>
 </sst>
 </file>
@@ -429,14 +421,14 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection sqref="A1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="39.73046875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.19921875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.06640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="26" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="17.265625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="4.46484375" bestFit="1" customWidth="1"/>
   </cols>
@@ -489,7 +481,7 @@
         <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
